--- a/BancoManual.xlsx
+++ b/BancoManual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debor\OneDrive\Área de Trabalho\WM-Lages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AF7182-F9F3-4A95-B8E7-06B478ADD83E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72AB14E-7461-4F3C-B11A-DDB76A843B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{DD407B27-C00F-4488-8BF8-4F64AC55F630}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{DD407B27-C00F-4488-8BF8-4F64AC55F630}"/>
   </bookViews>
   <sheets>
     <sheet name="Motoristas" sheetId="1" r:id="rId1"/>

--- a/BancoManual.xlsx
+++ b/BancoManual.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debor\OneDrive\Área de Trabalho\WM-Lages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan.klehm\Desktop\WM-Lages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72AB14E-7461-4F3C-B11A-DDB76A843B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{DD407B27-C00F-4488-8BF8-4F64AC55F630}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Motoristas" sheetId="1" r:id="rId1"/>
@@ -2135,7 +2134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2280,17 +2279,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2D807A86-B0E3-418E-A802-837962BE58A8}" name="Tabela1" displayName="Tabela1" ref="A1:E184" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E184" xr:uid="{C8221F7D-3DB6-4C21-9A64-E55C780B52A9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E184">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E184" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E184"/>
+  <sortState ref="A2:E184">
     <sortCondition ref="A1:A184"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BFD3B2C6-9882-4E91-8C95-422B8EF534F0}" name="CPF" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{835C6AA5-4CD0-4C23-8911-11384194C295}" name="Motorista" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{4E4BA250-3EDB-47BD-A3EF-97E0D2CFCABE}" name="Cavalo" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2E974D89-47ED-406C-A362-D56D43220239}" name="Carreta 1" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{DD416AC3-08C9-4DD6-BF12-E898E4FEC54B}" name="Carreta 2" dataDxfId="0"/>
+    <tableColumn id="1" name="CPF" dataDxfId="4"/>
+    <tableColumn id="2" name="Motorista" dataDxfId="3"/>
+    <tableColumn id="3" name="Cavalo" dataDxfId="2"/>
+    <tableColumn id="4" name="Carreta 1" dataDxfId="1"/>
+    <tableColumn id="5" name="Carreta 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2592,7 +2591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C751061F-6A76-4AFA-B6F7-1E700ADBB487}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
@@ -5481,15 +5480,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010027B90DEC8A0C5A4DAEC77D778C94ED91" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e5d8777f5ff0d15a513405737b90c0a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9096394c-c077-40dc-b5b5-e742ddd672b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02ebd839b2629f45036f137fc19cfb0b" ns3:_="">
     <xsd:import namespace="9096394c-c077-40dc-b5b5-e742ddd672b3"/>
@@ -5621,6 +5611,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25690C4B-1EB2-4979-926B-BD7412BACBAA}">
   <ds:schemaRefs>
@@ -5638,14 +5637,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45335449-E563-4D54-BD99-61EFE1719E2C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8EBA67-652C-4915-AAAB-EAB2B9203890}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5661,4 +5652,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45335449-E563-4D54-BD99-61EFE1719E2C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BancoManual.xlsx
+++ b/BancoManual.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan.klehm\Desktop\WM-Lages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renan\Desktop\WM-Lages\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F600E3-FB35-471D-A698-14C6C5DB55BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Motoristas" sheetId="1" r:id="rId1"/>
@@ -2134,7 +2135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2279,17 +2280,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E184" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E184"/>
-  <sortState ref="A2:E184">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:E184" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E184" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E184">
     <sortCondition ref="A1:A184"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="CPF" dataDxfId="4"/>
-    <tableColumn id="2" name="Motorista" dataDxfId="3"/>
-    <tableColumn id="3" name="Cavalo" dataDxfId="2"/>
-    <tableColumn id="4" name="Carreta 1" dataDxfId="1"/>
-    <tableColumn id="5" name="Carreta 2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CPF" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Motorista" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cavalo" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Carreta 1" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Carreta 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2591,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
@@ -5474,12 +5475,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010027B90DEC8A0C5A4DAEC77D778C94ED91" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e5d8777f5ff0d15a513405737b90c0a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9096394c-c077-40dc-b5b5-e742ddd672b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02ebd839b2629f45036f137fc19cfb0b" ns3:_="">
     <xsd:import namespace="9096394c-c077-40dc-b5b5-e742ddd672b3"/>
@@ -5611,6 +5606,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5621,22 +5622,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25690C4B-1EB2-4979-926B-BD7412BACBAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9096394c-c077-40dc-b5b5-e742ddd672b3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8EBA67-652C-4915-AAAB-EAB2B9203890}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5654,6 +5639,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25690C4B-1EB2-4979-926B-BD7412BACBAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9096394c-c077-40dc-b5b5-e742ddd672b3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45335449-E563-4D54-BD99-61EFE1719E2C}">
   <ds:schemaRefs>

--- a/BancoManual.xlsx
+++ b/BancoManual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renan\Desktop\WM-Lages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F600E3-FB35-471D-A698-14C6C5DB55BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC0B6DE-E62E-4CD7-AA20-DAF58543523D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Motoristas" sheetId="1" r:id="rId1"/>
@@ -5475,6 +5475,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010027B90DEC8A0C5A4DAEC77D778C94ED91" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e5d8777f5ff0d15a513405737b90c0a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9096394c-c077-40dc-b5b5-e742ddd672b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02ebd839b2629f45036f137fc19cfb0b" ns3:_="">
     <xsd:import namespace="9096394c-c077-40dc-b5b5-e742ddd672b3"/>
@@ -5606,35 +5621,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8EBA67-652C-4915-AAAB-EAB2B9203890}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45335449-E563-4D54-BD99-61EFE1719E2C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9096394c-c077-40dc-b5b5-e742ddd672b3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5656,9 +5646,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45335449-E563-4D54-BD99-61EFE1719E2C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8EBA67-652C-4915-AAAB-EAB2B9203890}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9096394c-c077-40dc-b5b5-e742ddd672b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/BancoManual.xlsx
+++ b/BancoManual.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renan\Desktop\WM-Lages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan.klehm\Desktop\WM-Lages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC0B6DE-E62E-4CD7-AA20-DAF58543523D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Motoristas" sheetId="1" r:id="rId1"/>
@@ -2135,7 +2134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2280,17 +2279,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:E184" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E184" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E184">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E184" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E184"/>
+  <sortState ref="A2:E184">
     <sortCondition ref="A1:A184"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CPF" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Motorista" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cavalo" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Carreta 1" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Carreta 2" dataDxfId="0"/>
+    <tableColumn id="1" name="CPF" dataDxfId="4"/>
+    <tableColumn id="2" name="Motorista" dataDxfId="3"/>
+    <tableColumn id="3" name="Cavalo" dataDxfId="2"/>
+    <tableColumn id="4" name="Carreta 1" dataDxfId="1"/>
+    <tableColumn id="5" name="Carreta 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2592,7 +2591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">

--- a/BancoManual.xlsx
+++ b/BancoManual.xlsx
@@ -5483,12 +5483,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010027B90DEC8A0C5A4DAEC77D778C94ED91" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e5d8777f5ff0d15a513405737b90c0a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9096394c-c077-40dc-b5b5-e742ddd672b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02ebd839b2629f45036f137fc19cfb0b" ns3:_="">
     <xsd:import namespace="9096394c-c077-40dc-b5b5-e742ddd672b3"/>
@@ -5620,6 +5614,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45335449-E563-4D54-BD99-61EFE1719E2C}">
   <ds:schemaRefs>
@@ -5629,22 +5629,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25690C4B-1EB2-4979-926B-BD7412BACBAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9096394c-c077-40dc-b5b5-e742ddd672b3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8EBA67-652C-4915-AAAB-EAB2B9203890}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5660,4 +5644,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25690C4B-1EB2-4979-926B-BD7412BACBAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9096394c-c077-40dc-b5b5-e742ddd672b3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BancoManual.xlsx
+++ b/BancoManual.xlsx
@@ -5483,6 +5483,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010027B90DEC8A0C5A4DAEC77D778C94ED91" ma:contentTypeVersion="2" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="e5d8777f5ff0d15a513405737b90c0a1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9096394c-c077-40dc-b5b5-e742ddd672b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02ebd839b2629f45036f137fc19cfb0b" ns3:_="">
     <xsd:import namespace="9096394c-c077-40dc-b5b5-e742ddd672b3"/>
@@ -5614,12 +5620,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45335449-E563-4D54-BD99-61EFE1719E2C}">
   <ds:schemaRefs>
@@ -5629,6 +5629,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25690C4B-1EB2-4979-926B-BD7412BACBAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9096394c-c077-40dc-b5b5-e742ddd672b3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C8EBA67-652C-4915-AAAB-EAB2B9203890}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5644,20 +5660,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25690C4B-1EB2-4979-926B-BD7412BACBAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9096394c-c077-40dc-b5b5-e742ddd672b3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>